--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -58,52 +55,55 @@
     <t>broke</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>di</t>
   </si>
   <si>
     <t>ok</t>
@@ -124,48 +124,45 @@
     <t>item</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>hard</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -212,6 +206,9 @@
   </si>
   <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -578,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.8148148148148148</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.78125</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.7311827956989247</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7526881720430108</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.5660377358490566</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7330097087378641</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.46875</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -968,16 +965,16 @@
         <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.391304347826087</v>
+        <v>0.3491803278688524</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.3434426229508197</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L10">
-        <v>419</v>
+        <v>203</v>
       </c>
       <c r="M10">
-        <v>419</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>801</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6283783783783784</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11">
-        <v>0.2812051649928264</v>
+        <v>0.2448132780082987</v>
       </c>
       <c r="L11">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="M11">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>501</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5798319327731093</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.2780082987551867</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L12">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>348</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.225</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L13">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.509090909090909</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.2108433734939759</v>
+        <v>0.1865443425076453</v>
       </c>
       <c r="L14">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="M14">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>131</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,38 +1244,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C15">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="L15">
         <v>27</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>27</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15">
-        <v>0.1865443425076453</v>
-      </c>
-      <c r="L15">
-        <v>61</v>
-      </c>
-      <c r="M15">
-        <v>61</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>266</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,16 +1315,16 @@
         <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.1428571428571428</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1339,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>162</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4985507246376812</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C17">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1365,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.07099035933391762</v>
+        <v>0.08326029798422437</v>
       </c>
       <c r="L17">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M17">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1389,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1060</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1397,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4888888888888889</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,31 +1412,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.027255029201817</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1447,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4603174603174603</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1473,13 +1470,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4457831325301205</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1491,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1499,13 +1496,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4173228346456693</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1517,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1525,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C22">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1543,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1551,13 +1548,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3707865168539326</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1569,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1577,13 +1574,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3666666666666666</v>
+        <v>0.359375</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1595,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1603,13 +1600,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3203125</v>
+        <v>0.3359375</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1629,13 +1626,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.301980198019802</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1647,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1655,13 +1652,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2890995260663507</v>
+        <v>0.2654028436018958</v>
       </c>
       <c r="C27">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1673,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1681,13 +1678,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2577319587628866</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1699,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1707,13 +1704,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2564102564102564</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1725,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1733,13 +1730,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.177536231884058</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C30">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1751,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1759,13 +1756,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1617210682492582</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C31">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="D31">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1777,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>565</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1785,13 +1782,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1582278481012658</v>
+        <v>0.1835443037974684</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1803,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1811,13 +1808,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1550632911392405</v>
+        <v>0.1557863501483679</v>
       </c>
       <c r="C33">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D33">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1829,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>267</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1837,13 +1834,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1464968152866242</v>
+        <v>0.155</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1855,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1863,13 +1860,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1314285714285714</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1881,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1889,13 +1886,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1277533039647577</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C36">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1907,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>396</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1915,13 +1912,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1264367816091954</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C37">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1933,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>304</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1941,13 +1938,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.12</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1959,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>176</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1967,13 +1964,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1168224299065421</v>
+        <v>0.1013698630136986</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1985,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>189</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1993,13 +1990,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1086142322097378</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2011,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2019,13 +2016,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.08870967741935484</v>
+        <v>0.08614232209737828</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2037,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2045,13 +2042,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07945205479452055</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2063,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>336</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2071,25 +2068,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07084019769357495</v>
+        <v>0.05592105263157895</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2097,51 +2094,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0556792873051225</v>
+        <v>0.0316055625790139</v>
       </c>
       <c r="C44">
         <v>25</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="C45">
-        <v>22</v>
-      </c>
-      <c r="D45">
-        <v>24</v>
-      </c>
-      <c r="E45">
-        <v>0.08</v>
-      </c>
-      <c r="F45">
-        <v>0.92</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
